--- a/Test Case/IntermediateTestCases.xlsx
+++ b/Test Case/IntermediateTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1CC320-2080-483D-8635-3E16EF9589AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6761828-0E71-4C70-9A68-7DC6A856E38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>SrNo</t>
   </si>
@@ -52,6 +52,32 @@
   </si>
   <si>
     <t>Write a python code to reverse a string using recursion.</t>
+  </si>
+  <si>
+    <t>Write a python code to find if the given number is prime using the most efficient algorithm. Name the algorithm implemented.</t>
+  </si>
+  <si>
+    <t>Write a python code to sort the list of given numbers, Use the most efficient algorithm. Time and compare with other algorithm.</t>
+  </si>
+  <si>
+    <t>Write a python code to generate a pyramid pattern with n number of rows, where n is the input. Every row first element starts with character a and may be followed by  b,c and so on, depending on the number of elements in the row. Example for n = 3 the pattern generated should be:                                         a
+                                             a b
+                                            a b c</t>
+  </si>
+  <si>
+    <t>Write a python code to generate n  armstrong numbers efficiently. n is the input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to find all the palindrome strings in the given text. Ignore the space in the text. </t>
+  </si>
+  <si>
+    <t>Create a product having the attributes product_id, name and price. All the attributes should not be accessible from outside. Create methods to read the values of the attributes, only the price value can be changed or modified. It is compulsary to send the name and product_id while creating an object. Create some example objects and try to change the name of the product from outside. This is an object oriented programming question.</t>
+  </si>
+  <si>
+    <t>Write a python program to write the words equivalent of the number entered.</t>
+  </si>
+  <si>
+    <t>Write a map reduce python code to do a left join between customer and order data set with order_id as the foreign key.</t>
   </si>
 </sst>
 </file>
@@ -381,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,8 +454,129 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/IntermediateTestCases.xlsx
+++ b/Test Case/IntermediateTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6761828-0E71-4C70-9A68-7DC6A856E38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAF5D22-6B21-40F0-8EE6-3781A082473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>SrNo</t>
   </si>
@@ -78,13 +78,161 @@
   </si>
   <si>
     <t>Write a map reduce python code to do a left join between customer and order data set with order_id as the foreign key.</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>How can you join two tables, customer and order which are in different sql servers, the foreign key is customer_id.</t>
+  </si>
+  <si>
+    <t>Below SQL Server code is not performing good, please optimize the below query, the customer and order table have millions of records where as store have very less record:  begin
+declare @city = 'Trier'
+select * into #custorder   from 
+customer as c inner join order as o on c.customer_id = o.customer_id and 'delivered'  = o.order_status and 'Frankfurt' = c.city
+inner join store as s on s.store_id = o.store_id
+where @city = 'Frankfurt' or @city = 'Cologne' or @city = 'Trier'
+select * into #custorder   from 
+customer as c inner join order as o on c.customer_id = o.customer_id and 'packed'  = o.order_status and 'Cologne' = c.city
+inner join store as s on s.store_id = o.store_id
+where @city = 'Frankfurt' or @city = 'Cologne' or @city = 'Trier'
+select * into #custorder   from 
+customer as c inner join order as o on c.customer_id = o.customer_id and 'transit'  = o.order_status and 'Trier' = c.city
+inner join store as s on s.store_id = o.store_id
+where @city = 'Frankfurt' or @city = 'Cologne' or @city = 'Trier'
+end</t>
+  </si>
+  <si>
+    <t>Write a Sql server query to get me the 3rd highest salary from the employee table without using rownumber.</t>
+  </si>
+  <si>
+    <t>Write a SQL server query to get the employee and it's manager.</t>
+  </si>
+  <si>
+    <t>Write a SQL server query to get me how many month's first day starts on Monday in the current year.</t>
+  </si>
+  <si>
+    <r>
+      <t>Consider the below SQl Server Schema answer the following 5 questions.(The underlined attributes are primary key of that table):
+• Book: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Title, Author, PublicationYear, ISBN, Price]}
+• Person: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Forename, Name, BirthYear]}
+• borrow: {[</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>DueDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>]}
+a. Write an SQL Server query to find the name of the person who borrowed the same book more than one time in decending order.</t>
+    </r>
+  </si>
+  <si>
+    <t>b. Write an SQL Server query to find the author with most borrowed books.</t>
+  </si>
+  <si>
+    <t>c. Write an SQL Server query to find the most borrowed book and the name of the person who borrowed it.</t>
+  </si>
+  <si>
+    <t>d. Write an SQL Server query to find the name of the perons who only borrowed only one book from a author.</t>
+  </si>
+  <si>
+    <t>e. Write an SQL Server query to find the month when total sum of the borrowed book price was highest.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +241,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -407,22 +562,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D25" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -439,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -453,7 +608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -467,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -481,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -495,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -509,7 +664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -523,7 +678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -537,7 +692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -551,7 +706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -565,7 +720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -579,7 +734,121 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Case/IntermediateTestCases.xlsx
+++ b/Test Case/IntermediateTestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAF5D22-6B21-40F0-8EE6-3781A082473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F1CF28-90A2-43FF-9A23-326A6F329F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>SrNo</t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>moderate</t>
-  </si>
-  <si>
-    <t>Write a python code to capitalize the first letter of all the words in the sentence. Test the code with example.</t>
-  </si>
-  <si>
-    <t>Write a python code to reverse a string using recursion.</t>
-  </si>
-  <si>
-    <t>Write a python code to find if the given number is prime using the most efficient algorithm. Name the algorithm implemented.</t>
   </si>
   <si>
     <t>Write a python code to sort the list of given numbers, Use the most efficient algorithm. Time and compare with other algorithm.</t>
@@ -227,12 +218,27 @@
   <si>
     <t>e. Write an SQL Server query to find the month when total sum of the borrowed book price was highest.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Write a python code to find the number of prime numbers between 2 and inputed number n, including n and 2 using most  efficient algorithm. Name the algorithm implemented. Time and compare with another algorithm. </t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/recursive-solution-count-substrings-first-last-characters/</t>
+  </si>
+  <si>
+    <t>Write a python code to find recursive solution to count words with same first and last characters.</t>
+  </si>
+  <si>
+    <t>Write a python code to capitalize the first letter of all the words in the sentence using lambda functions.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +259,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,10 +285,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -282,8 +297,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D25" sqref="D24:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,9 +594,10 @@
     <col min="3" max="3" width="20.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="60.5546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,8 +613,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -605,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -619,10 +642,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -633,10 +659,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -647,10 +673,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -661,10 +687,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -675,10 +701,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -689,10 +715,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -703,10 +729,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -717,10 +743,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -731,10 +757,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -742,13 +768,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -756,10 +782,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="316.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -767,10 +793,10 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -778,10 +804,10 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -789,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -800,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -811,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -822,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -833,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -844,11 +870,14 @@
         <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{BFA2251E-AA7C-42D9-A595-0EB9D0BF7280}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Case/IntermediateTestCases.xlsx
+++ b/Test Case/IntermediateTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F1CF28-90A2-43FF-9A23-326A6F329F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF27510-6EB9-4B3F-BF82-2C0214FB4323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>SrNo</t>
   </si>
@@ -39,27 +39,15 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Outcome</t>
-  </si>
-  <si>
     <t>python</t>
   </si>
   <si>
     <t>moderate</t>
-  </si>
-  <si>
-    <t>Write a python code to sort the list of given numbers, Use the most efficient algorithm. Time and compare with other algorithm.</t>
   </si>
   <si>
     <t>Write a python code to generate a pyramid pattern with n number of rows, where n is the input. Every row first element starts with character a and may be followed by  b,c and so on, depending on the number of elements in the row. Example for n = 3 the pattern generated should be:                                         a
                                              a b
                                             a b c</t>
-  </si>
-  <si>
-    <t>Write a python code to generate n  armstrong numbers efficiently. n is the input.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a python code to find all the palindrome strings in the given text. Ignore the space in the text. </t>
   </si>
   <si>
     <t>Create a product having the attributes product_id, name and price. All the attributes should not be accessible from outside. Create methods to read the values of the attributes, only the price value can be changed or modified. It is compulsary to send the name and product_id while creating an object. Create some example objects and try to change the name of the product from outside. This is an object oriented programming question.</t>
@@ -222,16 +210,52 @@
     <t xml:space="preserve">Write a python code to find the number of prime numbers between 2 and inputed number n, including n and 2 using most  efficient algorithm. Name the algorithm implemented. Time and compare with another algorithm. </t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/recursive-solution-count-substrings-first-last-characters/</t>
   </si>
   <si>
-    <t>Write a python code to find recursive solution to count words with same first and last characters.</t>
-  </si>
-  <si>
     <t>Write a python code to capitalize the first letter of all the words in the sentence using lambda functions.</t>
+  </si>
+  <si>
+    <t>GPT3.5</t>
+  </si>
+  <si>
+    <t>Bard</t>
+  </si>
+  <si>
+    <t>BingAI</t>
+  </si>
+  <si>
+    <t>You.com</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>BARD is not able to keep the U.S.A , it is giving U.s.a</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Write a python code to find recursive solution to count words with same first and last characters in a given sentence.</t>
+  </si>
+  <si>
+    <t>Faled to understand the question.</t>
+  </si>
+  <si>
+    <t>Write a python code to sort the list of given numbers using the most efficient algorithm. Don't use the inbult algorithm. Time and compare with other algorithm.</t>
+  </si>
+  <si>
+    <t>0 either failed to understand the question or implemented quicksort algorithm.</t>
+  </si>
+  <si>
+    <t>Write a python code to generate n  armstrong numbers using the most efficient algorithm. Name the algorithm.Time and Compare with another algorithm.</t>
+  </si>
+  <si>
+    <t>Failed to understand the question or wrong code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to find all the palindrome strings in the given text. </t>
   </si>
 </sst>
 </file>
@@ -268,12 +292,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -289,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -299,6 +335,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,229 +641,332 @@
     <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="60.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="10.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="316.8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -823,10 +974,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -834,10 +985,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -845,10 +996,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -856,10 +1007,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -867,15 +1018,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{BFA2251E-AA7C-42D9-A595-0EB9D0BF7280}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{BFA2251E-AA7C-42D9-A595-0EB9D0BF7280}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Test Case/IntermediateTestCases.xlsx
+++ b/Test Case/IntermediateTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF27510-6EB9-4B3F-BF82-2C0214FB4323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983986CB-0DDE-4C15-8FA8-642481332992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
   <si>
     <t>SrNo</t>
   </si>
@@ -50,219 +50,239 @@
                                             a b c</t>
   </si>
   <si>
-    <t>Create a product having the attributes product_id, name and price. All the attributes should not be accessible from outside. Create methods to read the values of the attributes, only the price value can be changed or modified. It is compulsary to send the name and product_id while creating an object. Create some example objects and try to change the name of the product from outside. This is an object oriented programming question.</t>
-  </si>
-  <si>
-    <t>Write a python program to write the words equivalent of the number entered.</t>
-  </si>
-  <si>
-    <t>Write a map reduce python code to do a left join between customer and order data set with order_id as the foreign key.</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
     <t>How can you join two tables, customer and order which are in different sql servers, the foreign key is customer_id.</t>
   </si>
   <si>
+    <t xml:space="preserve">Write a python code to find the number of prime numbers between 2 and inputed number n, including n and 2 using most  efficient algorithm. Name the algorithm implemented. Time and compare with another algorithm. </t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/recursive-solution-count-substrings-first-last-characters/</t>
+  </si>
+  <si>
+    <t>Write a python code to capitalize the first letter of all the words in the sentence using lambda functions.</t>
+  </si>
+  <si>
+    <t>GPT3.5</t>
+  </si>
+  <si>
+    <t>Bard</t>
+  </si>
+  <si>
+    <t>BingAI</t>
+  </si>
+  <si>
+    <t>You.com</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>BARD is not able to keep the U.S.A , it is giving U.s.a</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Write a python code to find recursive solution to count words with same first and last characters in a given sentence.</t>
+  </si>
+  <si>
+    <t>Faled to understand the question.</t>
+  </si>
+  <si>
+    <t>Write a python code to sort the list of given numbers using the most efficient algorithm. Don't use the inbult algorithm. Time and compare with other algorithm.</t>
+  </si>
+  <si>
+    <t>0 either failed to understand the question or implemented quicksort algorithm.</t>
+  </si>
+  <si>
+    <t>Write a python code to generate n  armstrong numbers using the most efficient algorithm. Name the algorithm.Time and Compare with another algorithm.</t>
+  </si>
+  <si>
+    <t>Failed to understand the question or wrong code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a python code to find all the palindrome strings in the given text. </t>
+  </si>
+  <si>
+    <t>Code failed</t>
+  </si>
+  <si>
+    <t>Write a python program to write  the number entered in the words without using any inbuilt function.</t>
+  </si>
+  <si>
+    <t>Create a product having the attributes product_id, name and price. All the attributes should not be accessible from outside. Create methods to read the values of the attributes, only the price value can be changed or modified. It is compulsary to send only the name and product_id while creating an object. Create some example objects and try to change the name of the product from outside. This is an object oriented programming question.</t>
+  </si>
+  <si>
+    <t>Some mistakes in the code</t>
+  </si>
+  <si>
+    <t>Write a map reduce python code to do a left join between customer and order data set with customer_id as the foreign key.</t>
+  </si>
+  <si>
+    <t>Write a Sql server query to get me the 3rd highest salary from the employee table without using rownumber or group by.</t>
+  </si>
+  <si>
+    <t>Write a Postgres SQL query to get me how many month's first day starts on Monday in the current year.</t>
+  </si>
+  <si>
+    <t>Consider the below Postgres SQL Schema answer the following 5 questions.(The underlined attributes are primary key of that table):
+• Book: {[BNR, Title, Author, PublicationYear, ISBN, Price]}
+• Person: {[PNR, Forename, Name, BirthYear]}
+• borrow: {[BNR, PNR, DueDate]}
+a. Write an Postgres SQL query to find the name of the person who borrowed the same book more than one time in decending order.</t>
+  </si>
+  <si>
+    <t>e. Write an Postgres SQL query to find the month when total sum of the borrowed book price was highest.</t>
+  </si>
+  <si>
     <t>Below SQL Server code is not performing good, please optimize the below query, the customer and order table have millions of records where as store have very less record:  begin
-declare @city = 'Trier'
+declare @city = 'Trier'// user input
 select * into #custorder   from 
-customer as c inner join order as o on c.customer_id = o.customer_id and 'delivered'  = o.order_status and 'Frankfurt' = c.city
+customer as c inner join order as o on c.customer_id = o.customer_id and 'delivered'  = o.order_status and @city = c.city
 inner join store as s on s.store_id = o.store_id
-where @city = 'Frankfurt' or @city = 'Cologne' or @city = 'Trier'
+where @city = 'Frankfurt' 
 select * into #custorder   from 
-customer as c inner join order as o on c.customer_id = o.customer_id and 'packed'  = o.order_status and 'Cologne' = c.city
+customer as c inner join order as o on c.customer_id = o.customer_id and 'packed'  = o.order_status and @city = c.city
 inner join store as s on s.store_id = o.store_id
-where @city = 'Frankfurt' or @city = 'Cologne' or @city = 'Trier'
+where @city = 'Cologne' 
 select * into #custorder   from 
-customer as c inner join order as o on c.customer_id = o.customer_id and 'transit'  = o.order_status and 'Trier' = c.city
+customer as c inner join order as o on c.customer_id = o.customer_id and 'transit'  = o.order_status and @city = c.city
 inner join store as s on s.store_id = o.store_id
-where @city = 'Frankfurt' or @city = 'Cologne' or @city = 'Trier'
+where @city = 'Trier'
 end</t>
   </si>
   <si>
-    <t>Write a Sql server query to get me the 3rd highest salary from the employee table without using rownumber.</t>
-  </si>
-  <si>
-    <t>Write a SQL server query to get the employee and it's manager.</t>
-  </si>
-  <si>
-    <t>Write a SQL server query to get me how many month's first day starts on Monday in the current year.</t>
-  </si>
-  <si>
-    <r>
-      <t>Consider the below SQl Server Schema answer the following 5 questions.(The underlined attributes are primary key of that table):
-• Book: {[</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>BNR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Title, Author, PublicationYear, ISBN, Price]}
-• Person: {[</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PNR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, Forename, Name, BirthYear]}
-• borrow: {[</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>BNR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PNR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>DueDate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>]}
-a. Write an SQL Server query to find the name of the person who borrowed the same book more than one time in decending order.</t>
-    </r>
-  </si>
-  <si>
-    <t>b. Write an SQL Server query to find the author with most borrowed books.</t>
-  </si>
-  <si>
-    <t>c. Write an SQL Server query to find the most borrowed book and the name of the person who borrowed it.</t>
-  </si>
-  <si>
-    <t>d. Write an SQL Server query to find the name of the perons who only borrowed only one book from a author.</t>
-  </si>
-  <si>
-    <t>e. Write an SQL Server query to find the month when total sum of the borrowed book price was highest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a python code to find the number of prime numbers between 2 and inputed number n, including n and 2 using most  efficient algorithm. Name the algorithm implemented. Time and compare with another algorithm. </t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/recursive-solution-count-substrings-first-last-characters/</t>
-  </si>
-  <si>
-    <t>Write a python code to capitalize the first letter of all the words in the sentence using lambda functions.</t>
-  </si>
-  <si>
-    <t>GPT3.5</t>
-  </si>
-  <si>
-    <t>Bard</t>
-  </si>
-  <si>
-    <t>BingAI</t>
-  </si>
-  <si>
-    <t>You.com</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>BARD is not able to keep the U.S.A , it is giving U.s.a</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Write a python code to find recursive solution to count words with same first and last characters in a given sentence.</t>
-  </si>
-  <si>
-    <t>Faled to understand the question.</t>
-  </si>
-  <si>
-    <t>Write a python code to sort the list of given numbers using the most efficient algorithm. Don't use the inbult algorithm. Time and compare with other algorithm.</t>
-  </si>
-  <si>
-    <t>0 either failed to understand the question or implemented quicksort algorithm.</t>
-  </si>
-  <si>
-    <t>Write a python code to generate n  armstrong numbers using the most efficient algorithm. Name the algorithm.Time and Compare with another algorithm.</t>
-  </si>
-  <si>
-    <t>Failed to understand the question or wrong code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a python code to find all the palindrome strings in the given text. </t>
+    <t>Failed to optimize</t>
+  </si>
+  <si>
+    <t>Query failed</t>
+  </si>
+  <si>
+    <t>Query failed (logical)</t>
+  </si>
+  <si>
+    <t>Write a Postgres SQL query to get the hierarchy of empolyee's managers and employee's under  him or her for any employee_id value inputted from the employee table.</t>
+  </si>
+  <si>
+    <t>Incomplete results</t>
+  </si>
+  <si>
+    <t>b. Write an Postgres SQL query to find the author whose books were borrowed the most.</t>
+  </si>
+  <si>
+    <t>c. Write an Postgres SQL query to find the most borrowed book and the name of the persons who borrowed it.</t>
+  </si>
+  <si>
+    <t>d. Write an Postgres SQL query to find the name of the persons who only borrowed  one book from a author.</t>
+  </si>
+  <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>Convert below python code to java:
+import re
+sentence = "this is a sample sentence with U.S.A. and e.g. in it"
+capitalize_words = lambda s: re.sub(r'\b[a-z]', lambda x: x.group().upper(), s)
+capitalized_sentence = capitalize_words(sentence)
+print(capitalized_sentence)</t>
+  </si>
+  <si>
+    <t>Convert below python code to Golang:
+def fnc(n):
+    if n &lt;= 0:
+        print("Please enter a positive integer.")
+        return
+    for i in range(1, n + 1):
+        print(" " * (n - i), end="")
+        for j in range(i):
+            print(chr(ord('a') + j), end=" ")
+        print()
+n = int(input("Enter the number of rows (n): "))
+fnc(n)</t>
+  </si>
+  <si>
+    <t>Convert below python code to R:
+import time
+def fnc(n):
+    start_time = time.time()
+    s = [True] * (n + 1)
+    s[0] = s[1] = False
+    for i in range(2, int(n ** 0.5) + 1):
+        if s[i]:
+            s[i * i: n + 1: i] = [False] * len(s[i * i: n + 1: i])
+    count = sum(s)
+    end_time = time.time()
+    return count, end_time - start_time
+n = int(input("Enter a number: "))
+count_s, time_s = fnc(n)
+print(count_s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert below python code to GoLang:
+def fnc_p(s):
+    s = s.replace(" ", "").lower()
+    return s == s[::-1]
+def fnc_p_in_t(text):
+    words = text.split()
+    pdms = []
+    for word in words:
+        if fnc_p(word):
+            pdms.append(word)
+    return pdms
+text = input("Enter a text: ")
+p_list = fnc_p_in_t(text)
+if p_list:
+    print("p in t")
+    for p in p_list:
+        print(p)
+else:
+    print("No p in t.")
+</t>
+  </si>
+  <si>
+    <t>Convert below Postgres SQL code to python pandas:
+WITH MostBorrowed AS (
+    SELECT b.BNR, b.Title, COUNT(*) AS BorrowCount
+    FROM Book b
+    JOIN borrow br ON b.BNR = br.BNR
+    GROUP BY b.BNR, b.Title
+    ORDER BY BorrowCount DESC
+    LIMIT 1
+)
+SELECT mb.Title AS MostBorrowedBook, p.Forename, p.Name
+FROM MostBorrowed mb
+JOIN borrow br ON mb.BNR = br.BNR
+JOIN Person p ON br.PNR = p.PNR;</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Write a java code to generate a pyramid pattern with n number of rows, where n is the input. Every row first element starts with character a and may be followed by  b,c and so on, depending on the number of elements in the row. Example for n = 3 the pattern generated should be:                                         a
+                                             a b
+                                            a b c</t>
+  </si>
+  <si>
+    <t>Write a java program to write  the number entered in the words without using any inbuilt function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a java code to find the number of prime numbers between 2 and inputed number n, including n and 2 using most  efficient algorithm. Name the algorithm implemented. Time and compare with another algorithm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a java code to find all the palindrome strings in the given text. </t>
+  </si>
+  <si>
+    <t>Write a java code to get me how many month's first day starts on Monday in the user given year.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,13 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -323,7 +336,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -333,7 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -629,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,22 +676,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -692,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -707,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -721,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -736,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -750,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -765,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -779,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -794,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -823,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -837,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -852,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -866,7 +879,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -880,7 +908,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -894,7 +937,22 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -908,7 +966,22 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -919,10 +992,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -932,8 +1017,26 @@
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="316.8" x14ac:dyDescent="0.3">
@@ -943,8 +1046,26 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -954,74 +1075,340 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/IntermediateTestCases.xlsx
+++ b/Test Case/IntermediateTestCases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983986CB-0DDE-4C15-8FA8-642481332992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F36FC46-9E25-4B74-8C03-070F673D954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -182,14 +182,6 @@
     <t>Migration</t>
   </si>
   <si>
-    <t>Convert below python code to java:
-import re
-sentence = "this is a sample sentence with U.S.A. and e.g. in it"
-capitalize_words = lambda s: re.sub(r'\b[a-z]', lambda x: x.group().upper(), s)
-capitalized_sentence = capitalize_words(sentence)
-print(capitalized_sentence)</t>
-  </si>
-  <si>
     <t>Convert below python code to Golang:
 def fnc(n):
     if n &lt;= 0:
@@ -202,23 +194,6 @@
         print()
 n = int(input("Enter the number of rows (n): "))
 fnc(n)</t>
-  </si>
-  <si>
-    <t>Convert below python code to R:
-import time
-def fnc(n):
-    start_time = time.time()
-    s = [True] * (n + 1)
-    s[0] = s[1] = False
-    for i in range(2, int(n ** 0.5) + 1):
-        if s[i]:
-            s[i * i: n + 1: i] = [False] * len(s[i * i: n + 1: i])
-    count = sum(s)
-    end_time = time.time()
-    return count, end_time - start_time
-n = int(input("Enter a number: "))
-count_s, time_s = fnc(n)
-print(count_s)</t>
   </si>
   <si>
     <t xml:space="preserve">Convert below python code to GoLang:
@@ -243,7 +218,49 @@
 </t>
   </si>
   <si>
-    <t>Convert below Postgres SQL code to python pandas:
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Write a java code to generate a pyramid pattern with n number of rows, where n is the input. Every row first element starts with character a and may be followed by  b,c and so on, depending on the number of elements in the row. Example for n = 3 the pattern generated should be:                                         a
+                                             a b
+                                            a b c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a java code to find the number of prime numbers between 2 and inputed number n, including n and 2 using most  efficient algorithm. Name the algorithm implemented. Time and compare with another algorithm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a java code to find all the palindrome strings in the given text. </t>
+  </si>
+  <si>
+    <t>Write a java code to get me how many month's first day starts on Monday in the user given year.</t>
+  </si>
+  <si>
+    <t>Convert below python code to java:
+import re
+sentence = "this is a sample sentence with U.S.A. and e.g. in it"
+cw = lambda s: re.sub(r'\b[a-z]', lambda x: x.group().upper(), s)
+cs = cw(sentence)
+print(cs)</t>
+  </si>
+  <si>
+    <t>Convert below python code to javascript:
+import time
+def fnc(n):
+    start_time = time.time()
+    s = [True] * (n + 1)
+    s[0] = s[1] = False
+    for i in range(2, int(n ** 0.5) + 1):
+        if s[i]:
+            s[i * i: n + 1: i] = [False] * len(s[i * i: n + 1: i])
+    count = sum(s)
+    end_time = time.time()
+    return count, end_time - start_time
+n = int(input("Enter a number: "))
+count_s, time_s = fnc(n)
+print(count_s)</t>
+  </si>
+  <si>
+    <t>Convert below Postgres SQL code to python pandas. Also test the panda code with sample datasets:
 WITH MostBorrowed AS (
     SELECT b.BNR, b.Title, COUNT(*) AS BorrowCount
     FROM Book b
@@ -258,31 +275,14 @@
 JOIN Person p ON br.PNR = p.PNR;</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Write a java code to generate a pyramid pattern with n number of rows, where n is the input. Every row first element starts with character a and may be followed by  b,c and so on, depending on the number of elements in the row. Example for n = 3 the pattern generated should be:                                         a
-                                             a b
-                                            a b c</t>
-  </si>
-  <si>
-    <t>Write a java program to write  the number entered in the words without using any inbuilt function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a java code to find the number of prime numbers between 2 and inputed number n, including n and 2 using most  efficient algorithm. Name the algorithm implemented. Time and compare with another algorithm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a java code to find all the palindrome strings in the given text. </t>
-  </si>
-  <si>
-    <t>Write a java code to get me how many month's first day starts on Monday in the user given year.</t>
+    <t>Write a java program to write  the number entered in words without using any inbuilt function.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +303,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -338,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -360,6 +367,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1282,7 +1292,19 @@
         <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
@@ -1296,7 +1318,19 @@
         <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
@@ -1310,7 +1344,19 @@
         <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="403.2" x14ac:dyDescent="0.3">
@@ -1324,10 +1370,22 @@
         <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1338,7 +1396,19 @@
         <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
@@ -1349,10 +1419,22 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1363,10 +1445,22 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -1377,10 +1471,22 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1391,10 +1497,22 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>54</v>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1405,10 +1523,40 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="8">
+        <f>SUM(E2:E31)</f>
+        <v>19</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" ref="F32:H32" si="0">SUM(F2:F31)</f>
+        <v>11</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Test Case/IntermediateTestCases.xlsx
+++ b/Test Case/IntermediateTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ML4NLU-Stress-Testing\Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb91a9f572235a6e/Desktop/ML4NLU Documentation/Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F36FC46-9E25-4B74-8C03-070F673D954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{9F36FC46-9E25-4B74-8C03-070F673D954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5754F6C9-C734-4AE7-930A-920852002E0D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
   <si>
     <t>SrNo</t>
   </si>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">Write a python code to find the number of prime numbers between 2 and inputed number n, including n and 2 using most  efficient algorithm. Name the algorithm implemented. Time and compare with another algorithm. </t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/recursive-solution-count-substrings-first-last-characters/</t>
-  </si>
-  <si>
     <t>Write a python code to capitalize the first letter of all the words in the sentence using lambda functions.</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>BARD is not able to keep the U.S.A , it is giving U.s.a</t>
-  </si>
-  <si>
-    <t>Reference</t>
   </si>
   <si>
     <t>Write a python code to find recursive solution to count words with same first and last characters in a given sentence.</t>
@@ -277,12 +271,39 @@
   <si>
     <t>Write a java program to write  the number entered in words without using any inbuilt function.</t>
   </si>
+  <si>
+    <t>Question Reference</t>
+  </si>
+  <si>
+    <t>(13)</t>
+  </si>
+  <si>
+    <t>(14)</t>
+  </si>
+  <si>
+    <t>(15)</t>
+  </si>
+  <si>
+    <t>(10)</t>
+  </si>
+  <si>
+    <t>(16)</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>(11)</t>
+  </si>
+  <si>
+    <t>(17)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,14 +318,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,7 +325,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,13 +334,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,9 +348,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -353,27 +359,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,6 +392,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -654,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,12 +681,12 @@
     <col min="6" max="6" width="9.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="10.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.5546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="26.21875" customWidth="1"/>
+    <col min="9" max="9" width="44.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.21875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -686,22 +699,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>18</v>
+      <c r="J1" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -715,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -729,8 +742,11 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>17</v>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -744,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -758,8 +774,8 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
+      <c r="J3" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -787,8 +803,11 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>20</v>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -802,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -816,8 +835,11 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>22</v>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -845,8 +867,11 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>20</v>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -860,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -874,8 +899,11 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>24</v>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -889,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -903,8 +931,11 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>26</v>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -918,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -932,8 +963,11 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>29</v>
+      <c r="I9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -947,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -961,8 +995,11 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>26</v>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -976,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -990,8 +1027,11 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>26</v>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1019,6 +1059,9 @@
       <c r="H12" s="1">
         <v>1</v>
       </c>
+      <c r="J12" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -1031,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1045,8 +1088,11 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>37</v>
+      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="316.8" x14ac:dyDescent="0.3">
@@ -1060,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1074,8 +1120,11 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>36</v>
+      <c r="I14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1089,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1103,8 +1152,11 @@
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>38</v>
+      <c r="I15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1118,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1132,11 +1184,14 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="I16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1147,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1161,11 +1216,14 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1176,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1190,11 +1248,14 @@
       <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1205,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1219,11 +1280,14 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1234,7 +1298,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1248,11 +1312,14 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1263,7 +1330,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1277,11 +1344,14 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="I21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1289,10 +1359,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1306,8 +1376,11 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="J22" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1315,10 +1388,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1332,8 +1405,11 @@
       <c r="H23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1341,10 +1417,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1358,8 +1434,11 @@
       <c r="H24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="J24" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1367,11 +1446,11 @@
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
@@ -1384,8 +1463,11 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="J25" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1393,10 +1475,10 @@
         <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1410,8 +1492,11 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="J26" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1419,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1436,8 +1521,11 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J27" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1445,10 +1533,10 @@
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1462,8 +1550,11 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J28" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1471,11 +1562,11 @@
         <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
@@ -1488,8 +1579,11 @@
       <c r="H29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1497,10 +1591,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1514,8 +1608,11 @@
       <c r="H30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J30" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1523,10 +1620,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1540,30 +1637,30 @@
       <c r="H31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="8">
+      <c r="J31" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E32" s="4">
         <f>SUM(E2:E31)</f>
         <v>19</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="4">
         <f t="shared" ref="F32:H32" si="0">SUM(F2:F31)</f>
         <v>11</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{BFA2251E-AA7C-42D9-A595-0EB9D0BF7280}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>